--- a/trend_excel_fraud.xlsx
+++ b/trend_excel_fraud.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gielderks/PycharmProjects/Triple_A_Case_Dash/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance\Non-Life\7. Data Analytics\R&amp;D\Dashboard_Fraud_case\Productie_Heroku_nieuweversie\aaa-fraud-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,27 +26,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Totaal aantal onderzoeken</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Aantal keren fraude</t>
+    <t>Number of fraud investigations</t>
   </si>
   <si>
-    <t>Totaal bespaard door detectie</t>
+    <t>Number of cases declared as fraud</t>
   </si>
   <si>
-    <t>Mensen opgenomen in waarschuwingssysteem</t>
+    <t>Total savings by fraud detection</t>
   </si>
   <si>
-    <t>Jaar</t>
+    <t>Number of people added to national fraud database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,23 +83,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -371,50 +374,50 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>20388</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>7762</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>99800000</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2562</v>
